--- a/Automation1/result/summary.xlsx
+++ b/Automation1/result/summary.xlsx
@@ -537,7 +537,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
